--- a/data/trans_camb/P55_6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P55_6-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,74</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.191568176698304</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.154901440834603</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.774737236381201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-24,86; 7,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,45; 7,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,18; 2,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-23.67192768211479</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-19.14357483354994</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-17.88064053849811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,12%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,28%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-7,31%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.022211006945547</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.205707442671379</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.700339513494207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-26,28; 7,4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-19,35; 9,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-19,21; 3,19</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.07629528209965745</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.06788048978621304</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.07323708962246481</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2465624303092567</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2032300556961771</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1901309621253296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-25,19; 5,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,12; 9,24</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,92; 2,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.06512612580361135</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.09753622239075584</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.02902141819790888</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-9,03%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,52%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-7,47%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-8.157929796321783</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.12744092319034</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.72693501462952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-26,9; 6,01</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-21,02; 11,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-19,04; 2,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.16974135358168</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.35052564105346</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.9468608140904</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.222805892663348</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.474092311548366</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.425936139365569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,71; 2,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 0,58</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,38; -0,54</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.08677216871561047</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.05673971336467235</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.07286528178547616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,17%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-5,78%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2524388435490983</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2174871438591203</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1914848963444785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,07; 2,45</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; 0,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,6; -0,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.06893966017729582</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1110867769493137</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02710551274361605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-6.651891452411163</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5.777972152562294</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-6.150352659325298</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 2,53</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,51; 6,35</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,76; 2,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.12320503300258</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.02123647704702</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-12.41933996652719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-1,31%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-3,1%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,16%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.657203306523939</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.6147654443986067</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.4459276875908384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 2,6</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-12,24; 7,42</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 3,17</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.06837553812753613</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.05957940426310192</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.06333754115003061</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1880889624041871</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1338973188776351</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1260230031913907</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-20,35; 9,97</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-18,75; 16,82</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-14,64; 8,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.02657331855055826</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.005861105100749574</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.00498477152025638</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-3,43%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,02%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-2,53%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.287297759340311</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.233696090844584</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.252657237933453</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; 12,24</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-21,89; 24,16</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-17,4; 11,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.539522023500068</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.04395801946981</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-8.039872100349406</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,25</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.918405404490834</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.494098816006583</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.671451237703879</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 18,03</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-29,36; 21,76</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-23,36; 13,04</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.01305871938468359</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.03567485480021725</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.02384109465092454</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-3,3%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.06665423293910469</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1278847164329978</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.08320620274832816</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 23,09</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-37,98; 34,55</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-27,19; 17,52</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.03006230992930943</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.06481559731151752</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.02858970383028599</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-3,88</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-4,66</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-2.642196015357967</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0.2803769899444641</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-1.722572100477504</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-9,14; 0,45</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 0,45</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-9,0; -0,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-20.31967958331392</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-19.04107729935162</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-14.41986878245958</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-4,13%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-6,01%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-5,14%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>10.70389663749069</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>16.72744845644546</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>9.224232045360479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-9,55; 0,44</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-14,46; 0,37</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; -0,64</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.0307703369279122</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.003695027504831852</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.02110069034980615</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.2299231981239642</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2209951093383887</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1686653923472083</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.129374639871836</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.2494233682191424</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.1188559866607194</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>5.262419300281385</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-2.638587936149561</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-1.032473668776246</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-4.382235023841216</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-27.84902471471408</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-19.72930864678878</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>17.81082253455878</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>21.66375057458481</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>12.87793471807006</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.05759259725547115</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.03787684149965885</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.01299705951494016</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.04432415595959091</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.3644421545401773</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2459168819377091</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.2186505847632481</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.3683065395629689</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.1768308131306914</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-3.902389074900547</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-5.388378004913308</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-4.723288546175796</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-9.155791524358886</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-12.4895252949661</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-8.916759068728055</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.267302818770402</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>0.2665470147645196</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>-0.6737708426399505</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.04151564077099383</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.06130035527979884</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.05196963580341511</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.09657836968490402</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1384051071691882</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.0960992596935528</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.001948952018519232</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.002693587928144068</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>-0.008108771642293539</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
